--- a/pred_ohlcv/54_21/2019-10-24 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 ORBS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3558274.960683526</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3905118.340483527</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1318387.625283526</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>8345447.38604822</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>8345447.38604822</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>6906318.01004822</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>6906318.01004822</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>6925158.84264822</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>6925158.84264822</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>6862138.26804822</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>6921991.90634822</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>6921991.90634822</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>6964525.11834822</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>6964525.11834822</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>6887712.30264822</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>6887712.30264822</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>7145700.65284822</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>7281870.12034822</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>7118182.23064822</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>7130468.728548219</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>6602372.511648219</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>6602372.511648219</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>6850930.304748219</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>6858998.608048219</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>6858998.608048219</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>6583269.692948219</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>4189518.981535177</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>4189518.981535177</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>4458128.641735177</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4470258.028335177</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>4470258.028335177</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>3711098.746135178</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>3995979.499535177</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>3995979.499535177</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3781652.043735177</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3781652.043735177</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>3717037.005635177</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>3717091.964235177</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>3669165.795735177</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>3669165.795735177</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>4001463.075735177</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>4187532.747835177</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>3680963.909635177</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>3680963.909635177</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>3680953.909635177</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>3680953.909635177</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>3670754.745235177</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>3710764.745235177</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>3710764.745235177</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>3710764.745235177</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>3724154.464935177</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>3724154.464935177</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>3724154.464935177</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>3737245.464935177</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3737245.464935177</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>3973940.123635177</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>3686338.414735177</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>3763278.811535177</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>3763278.811535177</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>3763278.811535177</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>3745016.905035177</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>3744865.753135176</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>3744865.753135176</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>3702608.168435176</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>3702618.168435176</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>3702618.168435176</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>3702618.168435176</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>3543149.064735177</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>3543149.064735177</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>3822006.016935177</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>3819196.016935177</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>4390644.476535177</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>4454411.997735177</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>4454421.997735177</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>4390624.476235177</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>3816085.739035177</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>3792517.014435177</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>3792517.014435177</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>3920337.871135177</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>3920337.871135177</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>3920337.871135177</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>3943116.560535177</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>3968911.314535177</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>3916949.075779079</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3894665.440379079</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>3911957.95647908</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>3873052.95647908</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>3873052.95647908</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>3791081.59677908</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>3823164.90627908</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>3823354.66227908</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>3823354.66227908</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>3857484.321379079</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>3857484.321379079</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3837484.321379079</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>3914550.28427908</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3914550.28427908</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>4073879.10287908</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>4014534.70287908</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>2491718.08467908</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>2219578.33307908</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>2323267.63747908</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2323267.63747908</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>2736777.06127908</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>4020999.65827908</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>4259407.78637908</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>4320945.836079081</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>4320945.836079081</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>4179685.161979081</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>4206894.761979081</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>4206894.761979081</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>4206894.761979081</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>4050554.929979081</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>3544938.870679081</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>3544938.870679081</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>3659226.250179081</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>3659226.250179081</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-24 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 ORBS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3558274.960683526</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3905118.340483527</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>1318387.625283526</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>6701518.323017234</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>7101093.286717234</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>8345447.38604822</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>8345447.38604822</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>8345447.38604822</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>8345447.38604822</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>6906318.01004822</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>6906318.01004822</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>6925158.84264822</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>6925158.84264822</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>6862138.26804822</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>6921991.90634822</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>6921991.90634822</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>6965770.22464822</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>6964525.11834822</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>6887712.30264822</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>7118182.23064822</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>4189518.981535177</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>4189518.981535177</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>4458128.641735177</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4470258.028335177</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>4470258.028335177</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>3711098.746135178</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>3995979.499535177</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>3995979.499535177</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3781652.043735177</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3781652.043735177</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>3717037.005635177</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>3717091.964235177</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>3669165.795735177</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>3669165.795735177</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>4001463.075735177</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>4187532.747835177</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>3680963.909635177</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>3680963.909635177</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>3680953.909635177</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>3680953.909635177</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>3670754.745235177</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>3710764.745235177</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>3710764.745235177</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>3710764.745235177</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>3724154.464935177</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>3724154.464935177</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>3724154.464935177</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>3737245.464935177</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3737245.464935177</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>3944609.349435177</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3914387.123635177</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>3973940.123635177</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>3973940.123635177</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>3973940.123635177</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>3686338.414735177</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>3763278.811535177</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>3763278.811535177</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>3763278.811535177</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>3745016.905035177</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>3739005.319635177</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>3744865.753135176</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>3744865.753135176</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>3702608.168435176</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>3702618.168435176</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>3702618.168435176</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>3702618.168435176</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>3543149.064735177</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>3543149.064735177</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>4454411.997735177</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>4454421.997735177</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>4390624.476235177</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>3814145.739035177</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>3816085.739035177</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>3792517.014435177</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>3920337.871135177</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>3920337.871135177</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>3968911.314535177</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>3957170.72727908</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>3957936.10857908</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>3957936.10857908</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>3916949.075779079</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3894665.440379079</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>3894665.440379079</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>3911957.95647908</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>3874052.95647908</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>3873052.95647908</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>3873052.95647908</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>3873052.95647908</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>3791081.59677908</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>3823164.90627908</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>3823354.66227908</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>3823354.66227908</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>3837784.85517908</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>3852748.77517908</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>3857484.321379079</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>3857484.321379079</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3837484.321379079</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>3914550.28427908</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3914550.28427908</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>4073879.10287908</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>4014534.70287908</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2808675.90707908</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>2617428.90417908</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>2461718.08467908</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2323267.63747908</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>2736777.06127908</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>4020999.65827908</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>4259407.78637908</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>4320945.836079081</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>4320945.836079081</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>4179685.161979081</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>4206894.761979081</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>4206894.761979081</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>4206894.761979081</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>4050554.929979081</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>3544938.870679081</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>3544938.870679081</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>3659226.250179081</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>3659226.250179081</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
